--- a/data/trans_orig/P16A_n_R3-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R3-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>7349</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3241</v>
+        <v>2959</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14759</v>
+        <v>15633</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01551090651986276</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006841727904597762</v>
+        <v>0.006244727486410644</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03115273536780149</v>
+        <v>0.03299661011803172</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -765,19 +765,19 @@
         <v>5488</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1897</v>
+        <v>2045</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11926</v>
+        <v>12359</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01789539972255183</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00618400984820823</v>
+        <v>0.006667836682118582</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03888881965998969</v>
+        <v>0.04030050581579506</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -786,19 +786,19 @@
         <v>12837</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6972</v>
+        <v>6992</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22539</v>
+        <v>22335</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0164478927454851</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008932666999893793</v>
+        <v>0.008959417659148115</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02887939143650434</v>
+        <v>0.02861839414026054</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>466427</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>459017</v>
+        <v>458143</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>470535</v>
+        <v>470817</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9844890934801372</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9688472646321984</v>
+        <v>0.9670033898819682</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9931582720954016</v>
+        <v>0.9937552725135893</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>293</v>
@@ -836,19 +836,19 @@
         <v>301192</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>294754</v>
+        <v>294321</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>304783</v>
+        <v>304635</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9821046002774482</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9611111803400106</v>
+        <v>0.9596994941842057</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9938159901517921</v>
+        <v>0.9933321633178814</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>741</v>
@@ -857,19 +857,19 @@
         <v>767620</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>757918</v>
+        <v>758122</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>773485</v>
+        <v>773465</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9835521072545149</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9711206085634958</v>
+        <v>0.9713816058597393</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9910673330001062</v>
+        <v>0.9910405823408516</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>2667</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7248</v>
+        <v>7197</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007267312062048031</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002208473265660886</v>
+        <v>0.002220569106895268</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01975301545565728</v>
+        <v>0.01961402086970017</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6049</v>
+        <v>7490</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005188590808069067</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01626668855769537</v>
+        <v>0.02014151018263733</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -1003,19 +1003,19 @@
         <v>4596</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1816</v>
+        <v>1762</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11014</v>
+        <v>10519</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006221014768818772</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002458411535345045</v>
+        <v>0.002384327071779286</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01490731515087003</v>
+        <v>0.01423777979853526</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>364267</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>359686</v>
+        <v>359737</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>366124</v>
+        <v>366119</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.992732687937952</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9802469845443426</v>
+        <v>0.9803859791302998</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9977915267343391</v>
+        <v>0.9977794308931047</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>361</v>
@@ -1053,7 +1053,7 @@
         <v>369936</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>365816</v>
+        <v>364375</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>371865</v>
@@ -1062,7 +1062,7 @@
         <v>0.9948114091919309</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9837333114423046</v>
+        <v>0.9798584898173623</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1074,19 +1074,19 @@
         <v>734203</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>727785</v>
+        <v>728280</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>736983</v>
+        <v>737037</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9937789852311812</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9850926848491303</v>
+        <v>0.9857622202014646</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.997541588464655</v>
+        <v>0.9976156729282207</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>7930</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3770</v>
+        <v>3444</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16031</v>
+        <v>16137</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01462113832346893</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006951260405385137</v>
+        <v>0.006348875835094429</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02955564062731978</v>
+        <v>0.02975081667600913</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1199,19 +1199,19 @@
         <v>4866</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1876</v>
+        <v>1900</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9994</v>
+        <v>10691</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02900282864187003</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01118295411902358</v>
+        <v>0.01132289243446353</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05956778780661788</v>
+        <v>0.0637191325870461</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1220,19 +1220,19 @@
         <v>12796</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6617</v>
+        <v>6625</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21374</v>
+        <v>20959</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01801889383545542</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009317729922168885</v>
+        <v>0.009328781639235345</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03009699432636069</v>
+        <v>0.02951235114261577</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>534459</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>526358</v>
+        <v>526252</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>538619</v>
+        <v>538945</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9853788616765311</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9704443593726806</v>
+        <v>0.9702491833239906</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9930487395946148</v>
+        <v>0.9936511241649054</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>159</v>
@@ -1270,19 +1270,19 @@
         <v>162916</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>157788</v>
+        <v>157091</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>165906</v>
+        <v>165882</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.97099717135813</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9404322121933821</v>
+        <v>0.9362808674129538</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9888170458809764</v>
+        <v>0.9886771075655365</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>683</v>
@@ -1291,19 +1291,19 @@
         <v>697375</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>688797</v>
+        <v>689212</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>703554</v>
+        <v>703546</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9819811061645446</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9699030056736389</v>
+        <v>0.9704876488573844</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9906822700778311</v>
+        <v>0.9906712183607647</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>22231</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14483</v>
+        <v>13888</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32662</v>
+        <v>32114</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01795252925308862</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0116957807377484</v>
+        <v>0.01121478231522857</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02637586644650265</v>
+        <v>0.02593342079180956</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -1416,19 +1416,19 @@
         <v>16509</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8915</v>
+        <v>9836</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24253</v>
+        <v>25936</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02311260822010189</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0124810694847735</v>
+        <v>0.01377095920069413</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03395373303464317</v>
+        <v>0.03631064770127864</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -1437,19 +1437,19 @@
         <v>38740</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28118</v>
+        <v>27647</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>51275</v>
+        <v>51827</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01984013115065224</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01439994968222701</v>
+        <v>0.01415896194887719</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02625956279636388</v>
+        <v>0.02654251809600233</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1216103</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1205672</v>
+        <v>1206220</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1223851</v>
+        <v>1224446</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9820474707469113</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9736241335534974</v>
+        <v>0.9740665792081904</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9883042192622516</v>
+        <v>0.9887852176847715</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>677</v>
@@ -1487,19 +1487,19 @@
         <v>697776</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>690032</v>
+        <v>688349</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>705370</v>
+        <v>704449</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9768873917798981</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9660462669653568</v>
+        <v>0.9636893522987213</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9875189305152265</v>
+        <v>0.9862290407993058</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1878</v>
@@ -1508,19 +1508,19 @@
         <v>1913880</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1901345</v>
+        <v>1900793</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1924502</v>
+        <v>1924973</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9801598688493478</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9737404372036361</v>
+        <v>0.9734574819039976</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.985600050317773</v>
+        <v>0.9858410380511227</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>8237</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4409</v>
+        <v>4178</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14526</v>
+        <v>14702</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02349805797703479</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01257644329938758</v>
+        <v>0.01191697318432274</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04143799999889191</v>
+        <v>0.04193877373782235</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1633,19 +1633,19 @@
         <v>11687</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5985</v>
+        <v>6150</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19918</v>
+        <v>20118</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0205492619421655</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01052339065329063</v>
+        <v>0.01081307333731383</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0350209485672748</v>
+        <v>0.03537281731511151</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -1654,19 +1654,19 @@
         <v>19925</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12711</v>
+        <v>12136</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30379</v>
+        <v>29713</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02167371314826908</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01382699397948338</v>
+        <v>0.01320071995831627</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03304533511808833</v>
+        <v>0.03232112952357347</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>342318</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>336029</v>
+        <v>335853</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>346146</v>
+        <v>346377</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9765019420229653</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9585620000011085</v>
+        <v>0.9580612262621772</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9874235567006124</v>
+        <v>0.9880830268156772</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>528</v>
@@ -1704,19 +1704,19 @@
         <v>557065</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>548834</v>
+        <v>548634</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>562767</v>
+        <v>562602</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9794507380578344</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9649790514327248</v>
+        <v>0.9646271826848885</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9894766093467092</v>
+        <v>0.9891869266626862</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>859</v>
@@ -1725,19 +1725,19 @@
         <v>899382</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>888928</v>
+        <v>889594</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>906596</v>
+        <v>907171</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.978326286851731</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9669546648819117</v>
+        <v>0.9676788704764265</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9861730060205166</v>
+        <v>0.9867992800416837</v>
       </c>
     </row>
     <row r="18">
@@ -1842,19 +1842,19 @@
         <v>46465</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34852</v>
+        <v>35451</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>61116</v>
+        <v>62624</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03720923553737267</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02790917859428165</v>
+        <v>0.02838894454885482</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04894124089614547</v>
+        <v>0.05014903593783205</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>44</v>
@@ -1863,19 +1863,19 @@
         <v>46465</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>34852</v>
+        <v>32996</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>62547</v>
+        <v>61548</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03003657964661845</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02252966476034165</v>
+        <v>0.02132956297216732</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04043192263618112</v>
+        <v>0.03978664913963335</v>
       </c>
     </row>
     <row r="20">
@@ -1905,19 +1905,19 @@
         <v>1202295</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1187644</v>
+        <v>1186136</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1213908</v>
+        <v>1213309</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9627907644626273</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9510587591038547</v>
+        <v>0.9498509640621682</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9720908214057188</v>
+        <v>0.9716110554511452</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1500</v>
@@ -1926,19 +1926,19 @@
         <v>1500495</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1484413</v>
+        <v>1485412</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1512108</v>
+        <v>1513964</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9699634203533816</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9595680773638188</v>
+        <v>0.9602133508603666</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9774703352396583</v>
+        <v>0.9786704370278326</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>48414</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36432</v>
+        <v>36731</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>63247</v>
+        <v>63071</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01480472899253345</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01114054050355614</v>
+        <v>0.0112320970757046</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01934037453060902</v>
+        <v>0.01928664834287211</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>84</v>
@@ -2051,19 +2051,19 @@
         <v>86946</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>70211</v>
+        <v>69752</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>106903</v>
+        <v>106480</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02573783415027326</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02078389307805968</v>
+        <v>0.02064819544876142</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03164566779292795</v>
+        <v>0.03152052596357077</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>134</v>
@@ -2072,19 +2072,19 @@
         <v>135360</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>113056</v>
+        <v>115075</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>159899</v>
+        <v>158392</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02036002993736182</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0170052028633375</v>
+        <v>0.01730887585953489</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02405107902143875</v>
+        <v>0.02382442474999331</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>3221776</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3206943</v>
+        <v>3207119</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3233758</v>
+        <v>3233459</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9851952710074665</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9806596254693911</v>
+        <v>0.9807133516571276</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9888594594964439</v>
+        <v>0.9887679029242952</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3212</v>
@@ -2122,19 +2122,19 @@
         <v>3291178</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3271221</v>
+        <v>3271644</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3307913</v>
+        <v>3308372</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9742621658497267</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9683543322070721</v>
+        <v>0.9684794740364291</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9792161069219404</v>
+        <v>0.9793518045512386</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6369</v>
@@ -2143,19 +2143,19 @@
         <v>6512954</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6488415</v>
+        <v>6489922</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6535258</v>
+        <v>6533239</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9796399700626381</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.975948920978561</v>
+        <v>0.9761755752500068</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9829947971366625</v>
+        <v>0.9826911241404651</v>
       </c>
     </row>
     <row r="24">
@@ -2489,19 +2489,19 @@
         <v>4892</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13982</v>
+        <v>14142</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01118886584534126</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00236627517382728</v>
+        <v>0.002342142728251793</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03198080409660264</v>
+        <v>0.03234528644097438</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2510,19 +2510,19 @@
         <v>7698</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3229</v>
+        <v>3557</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15623</v>
+        <v>15991</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02448184907596875</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01026723260579408</v>
+        <v>0.01131123219375393</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04968162111762852</v>
+        <v>0.05085290661910175</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -2531,19 +2531,19 @@
         <v>12590</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6497</v>
+        <v>6034</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23431</v>
+        <v>21743</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01674990027038187</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008643432431280717</v>
+        <v>0.008027480617808235</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03117146697036435</v>
+        <v>0.02892692683895681</v>
       </c>
     </row>
     <row r="5">
@@ -2560,19 +2560,19 @@
         <v>432319</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>423229</v>
+        <v>423069</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>436176</v>
+        <v>436187</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9888111341546587</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9680191959033971</v>
+        <v>0.9676547135590255</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9976337248261727</v>
+        <v>0.9976578572717483</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>276</v>
@@ -2581,19 +2581,19 @@
         <v>306756</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>298831</v>
+        <v>298463</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>311225</v>
+        <v>310897</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9755181509240313</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9503183788823713</v>
+        <v>0.9491470933808984</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9897327673942059</v>
+        <v>0.9886887678062463</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>677</v>
@@ -2602,19 +2602,19 @@
         <v>739075</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>728234</v>
+        <v>729922</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>745168</v>
+        <v>745631</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9832500997296181</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9688285330296357</v>
+        <v>0.9710730731610436</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9913565675687195</v>
+        <v>0.9919725193821918</v>
       </c>
     </row>
     <row r="6">
@@ -2706,19 +2706,19 @@
         <v>8392</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3253</v>
+        <v>3112</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18008</v>
+        <v>19518</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02003777316297184</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007767839386005101</v>
+        <v>0.007431648959085748</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04299928493831778</v>
+        <v>0.04660415785496898</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -2727,19 +2727,19 @@
         <v>8047</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4001</v>
+        <v>3718</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16271</v>
+        <v>15511</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02380692790549637</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01183563076505685</v>
+        <v>0.01100018019595777</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04813877994354203</v>
+        <v>0.04588880066944029</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -2748,19 +2748,19 @@
         <v>16439</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9260</v>
+        <v>8919</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28404</v>
+        <v>27585</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02172118036837649</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01223523208875204</v>
+        <v>0.01178459349003428</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03753123364307557</v>
+        <v>0.03644874361235777</v>
       </c>
     </row>
     <row r="8">
@@ -2777,19 +2777,19 @@
         <v>410405</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>400789</v>
+        <v>399279</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>415544</v>
+        <v>415685</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9799622268370282</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9570007150616825</v>
+        <v>0.9533958421450313</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9922321606139949</v>
+        <v>0.9925683510409142</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>297</v>
@@ -2798,19 +2798,19 @@
         <v>329964</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>321740</v>
+        <v>322500</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>334010</v>
+        <v>334293</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9761930720945037</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9518612200564587</v>
+        <v>0.9541111993305594</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9881643692349432</v>
+        <v>0.9889998198040422</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>666</v>
@@ -2819,19 +2819,19 @@
         <v>740369</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>728404</v>
+        <v>729223</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>747548</v>
+        <v>747889</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9782788196316236</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9624687663569241</v>
+        <v>0.9635512563876424</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.987764767911248</v>
+        <v>0.9882154065099658</v>
       </c>
     </row>
     <row r="9">
@@ -2923,19 +2923,19 @@
         <v>18988</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10259</v>
+        <v>10136</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32033</v>
+        <v>30461</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03016742998459631</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01629998622962972</v>
+        <v>0.01610357841750424</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05089391458967928</v>
+        <v>0.0483961253689949</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -2944,19 +2944,19 @@
         <v>9223</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4181</v>
+        <v>4905</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16655</v>
+        <v>16453</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03545711331479241</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01607167909916826</v>
+        <v>0.01885472196023362</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06402489848127192</v>
+        <v>0.06324807778764682</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -2965,19 +2965,19 @@
         <v>28211</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18463</v>
+        <v>17719</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>43896</v>
+        <v>43842</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03171429211089053</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0207551873821027</v>
+        <v>0.01991916130080524</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04934683434408421</v>
+        <v>0.0492857841436258</v>
       </c>
     </row>
     <row r="11">
@@ -2994,19 +2994,19 @@
         <v>610427</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>597382</v>
+        <v>598954</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>619156</v>
+        <v>619279</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9698325700154037</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9491060854103212</v>
+        <v>0.9516038746310052</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9837000137703704</v>
+        <v>0.9838964215824959</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>235</v>
@@ -3015,19 +3015,19 @@
         <v>250906</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>243474</v>
+        <v>243676</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>255948</v>
+        <v>255224</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9645428866852076</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9359751015187281</v>
+        <v>0.9367519222123528</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9839283209008318</v>
+        <v>0.9811452780397663</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>812</v>
@@ -3036,19 +3036,19 @@
         <v>861333</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>845648</v>
+        <v>845702</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>871081</v>
+        <v>871825</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9682857078891095</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9506531656559156</v>
+        <v>0.9507142158563738</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9792448126178972</v>
+        <v>0.9800808386991945</v>
       </c>
     </row>
     <row r="12">
@@ -3140,19 +3140,19 @@
         <v>20258</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12635</v>
+        <v>12732</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30421</v>
+        <v>30817</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01747846180625486</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01090152514601657</v>
+        <v>0.01098533824136683</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02624722523020681</v>
+        <v>0.02658907362385408</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -3161,19 +3161,19 @@
         <v>26446</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17694</v>
+        <v>16602</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37816</v>
+        <v>37833</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03449465883187779</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02307914135787925</v>
+        <v>0.02165558317982633</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04932638462989165</v>
+        <v>0.04934848379123584</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -3182,19 +3182,19 @@
         <v>46703</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>35056</v>
+        <v>33054</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>64955</v>
+        <v>61030</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02425304753526928</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01820441945149961</v>
+        <v>0.01716490075178085</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03373099578508657</v>
+        <v>0.03169270678386611</v>
       </c>
     </row>
     <row r="14">
@@ -3211,19 +3211,19 @@
         <v>1138751</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1128588</v>
+        <v>1128192</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1146374</v>
+        <v>1146277</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9825215381937451</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9737527747697934</v>
+        <v>0.973410926376146</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9890984748539834</v>
+        <v>0.9890146617586332</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>686</v>
@@ -3232,19 +3232,19 @@
         <v>740211</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>728841</v>
+        <v>728824</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>748963</v>
+        <v>750055</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9655053411681223</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9506736153701083</v>
+        <v>0.9506515162087642</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9769208586421207</v>
+        <v>0.9783444168201734</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1750</v>
@@ -3253,19 +3253,19 @@
         <v>1878964</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1860712</v>
+        <v>1864637</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1890611</v>
+        <v>1892613</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9757469524647308</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9662690042149138</v>
+        <v>0.9683072932161342</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9817955805485005</v>
+        <v>0.9828350992482194</v>
       </c>
     </row>
     <row r="15">
@@ -3357,19 +3357,19 @@
         <v>9365</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4178</v>
+        <v>4224</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16864</v>
+        <v>17079</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01834194440520499</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008182099637942277</v>
+        <v>0.008273601594633787</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03302752943254388</v>
+        <v>0.03344926502718797</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>44</v>
@@ -3378,19 +3378,19 @@
         <v>46732</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34058</v>
+        <v>33935</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62813</v>
+        <v>60937</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06136691567926878</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04472334577596802</v>
+        <v>0.04456178450188659</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08248309591470003</v>
+        <v>0.08002001550299531</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -3399,19 +3399,19 @@
         <v>56098</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>42022</v>
+        <v>42698</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>72684</v>
+        <v>72825</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04409777034066772</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03303318119916613</v>
+        <v>0.03356424775096712</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05713607965482834</v>
+        <v>0.05724696052480117</v>
       </c>
     </row>
     <row r="17">
@@ -3428,19 +3428,19 @@
         <v>501231</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>493732</v>
+        <v>493517</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>506418</v>
+        <v>506372</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.981658055594795</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9669724705674559</v>
+        <v>0.9665507349728121</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9918179003620577</v>
+        <v>0.9917263984053661</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>659</v>
@@ -3449,19 +3449,19 @@
         <v>714790</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>698709</v>
+        <v>700585</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>727464</v>
+        <v>727587</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9386330843207312</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9175169040853002</v>
+        <v>0.9199799844970048</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.955276654224032</v>
+        <v>0.9554382154981135</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1137</v>
@@ -3470,19 +3470,19 @@
         <v>1216020</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1199434</v>
+        <v>1199293</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1230096</v>
+        <v>1229420</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9559022296593322</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9428639203451716</v>
+        <v>0.9427530394751987</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9669668188008337</v>
+        <v>0.9664357522490329</v>
       </c>
     </row>
     <row r="18">
@@ -3587,19 +3587,19 @@
         <v>78984</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>62904</v>
+        <v>63038</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>98331</v>
+        <v>99188</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07119820378032969</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05670309296811974</v>
+        <v>0.05682399540826124</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08863871800743439</v>
+        <v>0.08941079538467729</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>73</v>
@@ -3608,19 +3608,19 @@
         <v>78984</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>62303</v>
+        <v>62718</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>98717</v>
+        <v>98139</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05739130389091134</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04527057820838497</v>
+        <v>0.04557193549758207</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07172981528001572</v>
+        <v>0.07131006340707718</v>
       </c>
     </row>
     <row r="20">
@@ -3650,19 +3650,19 @@
         <v>1030367</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1011020</v>
+        <v>1010163</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1046447</v>
+        <v>1046313</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9288017962196703</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9113612819925655</v>
+        <v>0.9105892046153227</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9432969070318802</v>
+        <v>0.9431760045917387</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1236</v>
@@ -3671,19 +3671,19 @@
         <v>1297249</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1277516</v>
+        <v>1278094</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1313930</v>
+        <v>1313515</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9426086961090887</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9282701847199843</v>
+        <v>0.9286899365929228</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.954729421791615</v>
+        <v>0.954428064502418</v>
       </c>
     </row>
     <row r="21">
@@ -3775,19 +3775,19 @@
         <v>61895</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>45959</v>
+        <v>46467</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>83200</v>
+        <v>81333</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01808770736377769</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01343086917468509</v>
+        <v>0.01357917973280004</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02431388258825651</v>
+        <v>0.02376828201366908</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>166</v>
@@ -3796,19 +3796,19 @@
         <v>177131</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>152061</v>
+        <v>151752</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>205544</v>
+        <v>204346</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04989416003219322</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0428324488765434</v>
+        <v>0.04274545386874962</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05789758763773724</v>
+        <v>0.05756010104328242</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>217</v>
@@ -3817,19 +3817,19 @@
         <v>239025</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>208353</v>
+        <v>208567</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>270483</v>
+        <v>274290</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0342833930595023</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02988411804743149</v>
+        <v>0.02991482172956998</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03879542417482205</v>
+        <v>0.0393414931509677</v>
       </c>
     </row>
     <row r="23">
@@ -3846,19 +3846,19 @@
         <v>3360015</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3338710</v>
+        <v>3340577</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3375951</v>
+        <v>3375443</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9819122926362223</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9756861174117427</v>
+        <v>0.9762317179863305</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9865691308253148</v>
+        <v>0.9864208202671999</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3124</v>
@@ -3867,19 +3867,19 @@
         <v>3372994</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3344581</v>
+        <v>3345779</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3398064</v>
+        <v>3398373</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9501058399678067</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9421024123622628</v>
+        <v>0.9424398989567175</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9571675511234566</v>
+        <v>0.9572545461312504</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6278</v>
@@ -3888,19 +3888,19 @@
         <v>6733010</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6701552</v>
+        <v>6697745</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6763682</v>
+        <v>6763468</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9657166069404977</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9612045758251779</v>
+        <v>0.9606585068490325</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9701158819525685</v>
+        <v>0.9700851782704302</v>
       </c>
     </row>
     <row r="24">
@@ -4234,19 +4234,19 @@
         <v>6772</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2721</v>
+        <v>2777</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14030</v>
+        <v>13824</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01578114918933032</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006342298723890168</v>
+        <v>0.006472036381644373</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03269582783389912</v>
+        <v>0.03221747841896602</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -4255,19 +4255,19 @@
         <v>5266</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2044</v>
+        <v>1971</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11581</v>
+        <v>11690</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01517295478780293</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005890178803656193</v>
+        <v>0.005679398420767273</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03337020354640934</v>
+        <v>0.03368283290196804</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -4276,19 +4276,19 @@
         <v>12037</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6245</v>
+        <v>7013</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21577</v>
+        <v>21714</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0155091944259222</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008046746494611692</v>
+        <v>0.009036220997080216</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02780068636855447</v>
+        <v>0.02797605520412766</v>
       </c>
     </row>
     <row r="5">
@@ -4305,19 +4305,19 @@
         <v>422320</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>415062</v>
+        <v>415268</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>426371</v>
+        <v>426315</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9842188508106697</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9673041721661008</v>
+        <v>0.9677825215810339</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9936577012761093</v>
+        <v>0.9935279636183554</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>327</v>
@@ -4326,19 +4326,19 @@
         <v>341789</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>335474</v>
+        <v>335365</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>345011</v>
+        <v>345084</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9848270452121971</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9666297964535905</v>
+        <v>0.9663171670980319</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9941098211963437</v>
+        <v>0.9943206015792327</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>717</v>
@@ -4347,19 +4347,19 @@
         <v>764110</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>754570</v>
+        <v>754433</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>769902</v>
+        <v>769134</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9844908055740778</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9721993136314464</v>
+        <v>0.9720239447958727</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9919532535053884</v>
+        <v>0.99096377900292</v>
       </c>
     </row>
     <row r="6">
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5994</v>
+        <v>6435</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.003164744621841484</v>
@@ -4463,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01589035555468087</v>
+        <v>0.01705864549897296</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -4472,19 +4472,19 @@
         <v>6262</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2899</v>
+        <v>2301</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12713</v>
+        <v>12712</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01682162883251382</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007786044472141189</v>
+        <v>0.006181396678134577</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03414842478162664</v>
+        <v>0.03414650772442938</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -4493,19 +4493,19 @@
         <v>7456</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3064</v>
+        <v>3215</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14206</v>
+        <v>14839</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009948055008526292</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004087901556105221</v>
+        <v>0.004289121650451918</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01895410416932628</v>
+        <v>0.01979866199219957</v>
       </c>
     </row>
     <row r="8">
@@ -4522,7 +4522,7 @@
         <v>376033</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>371233</v>
+        <v>370792</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>377227</v>
@@ -4531,7 +4531,7 @@
         <v>0.9968352553781585</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9841096444453191</v>
+        <v>0.9829413545010267</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -4543,19 +4543,19 @@
         <v>366011</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>359560</v>
+        <v>359561</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>369374</v>
+        <v>369972</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9831783711674862</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9658515752183734</v>
+        <v>0.9658534922755708</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9922139555278588</v>
+        <v>0.9938186033218654</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>699</v>
@@ -4564,19 +4564,19 @@
         <v>742044</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>735294</v>
+        <v>734661</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>746436</v>
+        <v>746285</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9900519449914738</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9810458958306737</v>
+        <v>0.9802013380078005</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9959120984438948</v>
+        <v>0.9957108783495481</v>
       </c>
     </row>
     <row r="9">
@@ -4668,19 +4668,19 @@
         <v>5799</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1997</v>
+        <v>2125</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11512</v>
+        <v>12139</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01111174964612324</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003826815136105287</v>
+        <v>0.004071189515273711</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02205747946051831</v>
+        <v>0.02325814041858921</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -4689,19 +4689,19 @@
         <v>9385</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4430</v>
+        <v>4525</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17014</v>
+        <v>17057</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05649564645434025</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02666676308580787</v>
+        <v>0.02724049193151275</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1024152071607597</v>
+        <v>0.1026741873197063</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -4710,19 +4710,19 @@
         <v>15185</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7971</v>
+        <v>8882</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24775</v>
+        <v>24462</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02206945357093236</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01158517280655158</v>
+        <v>0.01290852869807848</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03600886229228603</v>
+        <v>0.03555351875646798</v>
       </c>
     </row>
     <row r="11">
@@ -4739,19 +4739,19 @@
         <v>516115</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>510402</v>
+        <v>509775</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>519917</v>
+        <v>519789</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9888882503538767</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9779425205394819</v>
+        <v>0.9767418595814108</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9961731848638947</v>
+        <v>0.9959288104847264</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>145</v>
@@ -4760,19 +4760,19 @@
         <v>156738</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>149109</v>
+        <v>149066</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>161693</v>
+        <v>161598</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9435043535456598</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8975847928392405</v>
+        <v>0.8973258126802928</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9733332369141922</v>
+        <v>0.972759508068487</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>641</v>
@@ -4781,19 +4781,19 @@
         <v>672851</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>663261</v>
+        <v>663574</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>680065</v>
+        <v>679154</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9779305464290676</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9639911377077139</v>
+        <v>0.9644464812435319</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.988414827193448</v>
+        <v>0.9870914713019214</v>
       </c>
     </row>
     <row r="12">
@@ -4885,19 +4885,19 @@
         <v>21742</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14438</v>
+        <v>14398</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32371</v>
+        <v>32570</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01891205199946472</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01255892290180464</v>
+        <v>0.01252432266337271</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02815742679081542</v>
+        <v>0.02833074806774312</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -4906,19 +4906,19 @@
         <v>25490</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16753</v>
+        <v>16871</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37887</v>
+        <v>37937</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03086389606139834</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02028514021001602</v>
+        <v>0.02042793592387871</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04587505301885447</v>
+        <v>0.04593558685707433</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>46</v>
@@ -4927,19 +4927,19 @@
         <v>47232</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34776</v>
+        <v>35901</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61058</v>
+        <v>63576</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02390859382522012</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01760368083725275</v>
+        <v>0.01817287866852525</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03090763546574881</v>
+        <v>0.03218198044980982</v>
       </c>
     </row>
     <row r="14">
@@ -4956,19 +4956,19 @@
         <v>1127896</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1117267</v>
+        <v>1117068</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1135200</v>
+        <v>1135240</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9810879480005353</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9718425732091847</v>
+        <v>0.9716692519322569</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9874410770981953</v>
+        <v>0.9874756773366273</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>774</v>
@@ -4977,19 +4977,19 @@
         <v>800386</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>787989</v>
+        <v>787939</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>809123</v>
+        <v>809005</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9691361039386016</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9541249469811464</v>
+        <v>0.9540644131429253</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9797148597899841</v>
+        <v>0.9795720640761212</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1855</v>
@@ -4998,19 +4998,19 @@
         <v>1928282</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1914456</v>
+        <v>1911938</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1940738</v>
+        <v>1939613</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9760914061747799</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9690923645342512</v>
+        <v>0.9678180195501902</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9823963191627474</v>
+        <v>0.9818271213314748</v>
       </c>
     </row>
     <row r="15">
@@ -5102,19 +5102,19 @@
         <v>19562</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12705</v>
+        <v>12788</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29859</v>
+        <v>29793</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03151626568246518</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02046909233201197</v>
+        <v>0.02060254179720635</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04810460365326073</v>
+        <v>0.04799920123814121</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -5123,19 +5123,19 @@
         <v>42419</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29493</v>
+        <v>30584</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56319</v>
+        <v>56337</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05745932368734341</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03995034002456433</v>
+        <v>0.04142789751419294</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07628787850703739</v>
+        <v>0.07631149526328507</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>59</v>
@@ -5144,19 +5144,19 @@
         <v>61981</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46642</v>
+        <v>47533</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>77060</v>
+        <v>78598</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04560972764192161</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03432214397575433</v>
+        <v>0.03497746777780226</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05670548555434492</v>
+        <v>0.05783726039384397</v>
       </c>
     </row>
     <row r="17">
@@ -5173,19 +5173,19 @@
         <v>601144</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>590847</v>
+        <v>590913</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>608001</v>
+        <v>607918</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9684837343175349</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9518953963467393</v>
+        <v>0.9520007987618589</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9795309076679881</v>
+        <v>0.9793974582027937</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>661</v>
@@ -5194,19 +5194,19 @@
         <v>695825</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>681925</v>
+        <v>681907</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>708751</v>
+        <v>707660</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9425406763126566</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9237121214929627</v>
+        <v>0.9236885047367149</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9600496599754357</v>
+        <v>0.9585721024858072</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1237</v>
@@ -5215,19 +5215,19 @@
         <v>1296969</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1281890</v>
+        <v>1280352</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1312308</v>
+        <v>1311417</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9543902723580784</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9432945144456552</v>
+        <v>0.942162739606156</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9656778560242457</v>
+        <v>0.9650225322221978</v>
       </c>
     </row>
     <row r="18">
@@ -5322,7 +5322,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5959</v>
+        <v>6642</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.004157574351303669</v>
@@ -5331,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02075392136588125</v>
+        <v>0.02313039894971481</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>54</v>
@@ -5340,19 +5340,19 @@
         <v>64390</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50089</v>
+        <v>49108</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>82534</v>
+        <v>81604</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05950922697940939</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04629163810959719</v>
+        <v>0.04538521360545775</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07627738360679011</v>
+        <v>0.07541823973849267</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>55</v>
@@ -5361,19 +5361,19 @@
         <v>65584</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50608</v>
+        <v>50812</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83870</v>
+        <v>84413</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04790076458294424</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03696287335775292</v>
+        <v>0.03711134867518223</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06125575058328975</v>
+        <v>0.06165270360763311</v>
       </c>
     </row>
     <row r="20">
@@ -5390,7 +5390,7 @@
         <v>285951</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>281186</v>
+        <v>280503</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -5399,7 +5399,7 @@
         <v>0.9958424256486963</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9792460786341188</v>
+        <v>0.976869601050286</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5411,19 +5411,19 @@
         <v>1017635</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>999491</v>
+        <v>1000421</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1031936</v>
+        <v>1032917</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9404907730205906</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9237226163932098</v>
+        <v>0.9245817602615074</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9537083618904028</v>
+        <v>0.9546147863945424</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1209</v>
@@ -5432,19 +5432,19 @@
         <v>1303586</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1285300</v>
+        <v>1284757</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1318562</v>
+        <v>1318358</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9520992354170558</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9387442494167103</v>
+        <v>0.9383472963923662</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9630371266422468</v>
+        <v>0.9628886513248177</v>
       </c>
     </row>
     <row r="21">
@@ -5536,19 +5536,19 @@
         <v>56263</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42259</v>
+        <v>42710</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72762</v>
+        <v>71848</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01661770953803878</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01248147626651445</v>
+        <v>0.01261464601718028</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02149082246046893</v>
+        <v>0.02122093434803281</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>135</v>
@@ -5557,19 +5557,19 @@
         <v>153213</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>129600</v>
+        <v>129433</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>180515</v>
+        <v>182256</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04338336728000192</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03669735903554368</v>
+        <v>0.03664994852248479</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05111426220678707</v>
+        <v>0.05160728118851968</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>192</v>
@@ -5578,19 +5578,19 @@
         <v>209475</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>180330</v>
+        <v>182553</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>242648</v>
+        <v>239839</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03028275801176237</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0260694108545864</v>
+        <v>0.02639070836347372</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03507826601468307</v>
+        <v>0.03467223671691567</v>
       </c>
     </row>
     <row r="23">
@@ -5607,19 +5607,19 @@
         <v>3329459</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3312960</v>
+        <v>3313874</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3343463</v>
+        <v>3343012</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9833822904619612</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9785091775395311</v>
+        <v>0.978779065651967</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9875185237334856</v>
+        <v>0.9873853539828195</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3191</v>
@@ -5628,19 +5628,19 @@
         <v>3378383</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3351081</v>
+        <v>3349340</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3401996</v>
+        <v>3402163</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9566166327199981</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9488857377932128</v>
+        <v>0.94839271881148</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9633026409644562</v>
+        <v>0.9633500514775152</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6358</v>
@@ -5649,19 +5649,19 @@
         <v>6707843</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6674670</v>
+        <v>6677479</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6736988</v>
+        <v>6734765</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9697172419882376</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.964921733985317</v>
+        <v>0.9653277632830842</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9739305891454137</v>
+        <v>0.9736092916365261</v>
       </c>
     </row>
     <row r="24">
@@ -5995,19 +5995,19 @@
         <v>15031</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9202</v>
+        <v>9296</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23441</v>
+        <v>22994</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0272979083584011</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01671227445972048</v>
+        <v>0.01688216132319861</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04257294123199126</v>
+        <v>0.04176074780540995</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -6016,19 +6016,19 @@
         <v>23244</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15284</v>
+        <v>16235</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31983</v>
+        <v>33225</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04759095143944041</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0312931212035399</v>
+        <v>0.03323996201931146</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06548397679260788</v>
+        <v>0.0680258584029375</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -6037,19 +6037,19 @@
         <v>38275</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28592</v>
+        <v>28808</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49618</v>
+        <v>50669</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03683695076919896</v>
+        <v>0.03683695076919895</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02751843116944824</v>
+        <v>0.02772622346228802</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0477538815166299</v>
+        <v>0.04876582623059702</v>
       </c>
     </row>
     <row r="5">
@@ -6066,19 +6066,19 @@
         <v>535587</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>527177</v>
+        <v>527624</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>541416</v>
+        <v>541322</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.972702091641599</v>
+        <v>0.9727020916415988</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9574270587680086</v>
+        <v>0.9582392521945902</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9832877255402794</v>
+        <v>0.9831178386768017</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>652</v>
@@ -6087,19 +6087,19 @@
         <v>465167</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>456428</v>
+        <v>455186</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>473127</v>
+        <v>472176</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9524090485605597</v>
+        <v>0.9524090485605596</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9345160232073922</v>
+        <v>0.9319741415970627</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9687068787964601</v>
+        <v>0.9667600379806887</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1184</v>
@@ -6108,19 +6108,19 @@
         <v>1000754</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>989411</v>
+        <v>988360</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1010437</v>
+        <v>1010221</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9631630492308011</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.95224611848337</v>
+        <v>0.9512341737694027</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9724815688305517</v>
+        <v>0.9722737765377121</v>
       </c>
     </row>
     <row r="6">
@@ -6212,19 +6212,19 @@
         <v>21113</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14555</v>
+        <v>13458</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30580</v>
+        <v>30016</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04369401887587368</v>
+        <v>0.04369401887587367</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03012095566049722</v>
+        <v>0.02785054297521736</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06328517201655401</v>
+        <v>0.06211691091063749</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>37</v>
@@ -6233,19 +6233,19 @@
         <v>22471</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16425</v>
+        <v>16583</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30963</v>
+        <v>31341</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05310516867743217</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0388175485439353</v>
+        <v>0.03918947715652091</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07317415304321841</v>
+        <v>0.07406718181698491</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>65</v>
@@ -6254,19 +6254,19 @@
         <v>43585</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33326</v>
+        <v>31761</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>55351</v>
+        <v>55420</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04808772860663169</v>
+        <v>0.04808772860663167</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03676957471235871</v>
+        <v>0.03504221144807006</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06106956331659408</v>
+        <v>0.06114657047020975</v>
       </c>
     </row>
     <row r="8">
@@ -6283,19 +6283,19 @@
         <v>462099</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>452632</v>
+        <v>453196</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>468657</v>
+        <v>469754</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9563059811241263</v>
+        <v>0.9563059811241265</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9367148279834461</v>
+        <v>0.9378830890893626</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9698790443395028</v>
+        <v>0.9721494570247826</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>553</v>
@@ -6304,19 +6304,19 @@
         <v>400672</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>392180</v>
+        <v>391802</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>406718</v>
+        <v>406560</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9468948313225677</v>
+        <v>0.9468948313225678</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9268258469567819</v>
+        <v>0.9259328181830151</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9611824514560648</v>
+        <v>0.960810522843479</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1006</v>
@@ -6325,19 +6325,19 @@
         <v>862770</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>851004</v>
+        <v>850935</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>873029</v>
+        <v>874594</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9519122713933683</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9389304366834059</v>
+        <v>0.9388534295297903</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9632304252876412</v>
+        <v>0.9649577885519299</v>
       </c>
     </row>
     <row r="9">
@@ -6429,19 +6429,19 @@
         <v>30337</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20911</v>
+        <v>21699</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42875</v>
+        <v>43269</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06432666840435435</v>
+        <v>0.06432666840435433</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04433910704965102</v>
+        <v>0.04601009760582089</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09091098818165044</v>
+        <v>0.0917474974954408</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -6450,19 +6450,19 @@
         <v>23015</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16972</v>
+        <v>16246</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30744</v>
+        <v>29677</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1227467889917985</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0905198625006159</v>
+        <v>0.08664529084068615</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.163968459771762</v>
+        <v>0.1582819016435606</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>79</v>
@@ -6471,19 +6471,19 @@
         <v>53352</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42379</v>
+        <v>42676</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68048</v>
+        <v>67127</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08094548865535296</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06429727813552424</v>
+        <v>0.06474731443331866</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1032427888384898</v>
+        <v>0.1018448637551585</v>
       </c>
     </row>
     <row r="11">
@@ -6500,19 +6500,19 @@
         <v>441275</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>428737</v>
+        <v>428343</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>450701</v>
+        <v>449913</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9356733315956458</v>
+        <v>0.9356733315956456</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9090890118183496</v>
+        <v>0.9082525025045592</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9556608929503492</v>
+        <v>0.953989902394179</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>247</v>
@@ -6521,19 +6521,19 @@
         <v>164482</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>156753</v>
+        <v>157820</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>170525</v>
+        <v>171251</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8772532110082014</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8360315402282381</v>
+        <v>0.8417180983564395</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9094801374993841</v>
+        <v>0.9133547091593138</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>698</v>
@@ -6542,19 +6542,19 @@
         <v>605757</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>591061</v>
+        <v>591982</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>616730</v>
+        <v>616433</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9190545113446471</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8967572111615101</v>
+        <v>0.8981551362448416</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9357027218644757</v>
+        <v>0.9352526855666814</v>
       </c>
     </row>
     <row r="12">
@@ -6646,19 +6646,19 @@
         <v>64130</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>51888</v>
+        <v>52295</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>79653</v>
+        <v>79671</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0566600495227574</v>
+        <v>0.05666004952275741</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04584389906666991</v>
+        <v>0.04620314110886397</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07037444335319468</v>
+        <v>0.07039050799380564</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>93</v>
@@ -6667,19 +6667,19 @@
         <v>51985</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42695</v>
+        <v>41844</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64111</v>
+        <v>62968</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06036210782254581</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04957517718643447</v>
+        <v>0.04858795264306757</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07444245300021581</v>
+        <v>0.07311538990607769</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>185</v>
@@ -6688,19 +6688,19 @@
         <v>116115</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>100371</v>
+        <v>100609</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>134998</v>
+        <v>134789</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05825973250043408</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05036044584843344</v>
+        <v>0.05048002045487392</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0677343794308667</v>
+        <v>0.06762939907398646</v>
       </c>
     </row>
     <row r="14">
@@ -6717,19 +6717,19 @@
         <v>1067713</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1052190</v>
+        <v>1052172</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1079955</v>
+        <v>1079548</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9433399504772426</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9296255566468055</v>
+        <v>0.9296094920061944</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9541561009333301</v>
+        <v>0.9537968588911361</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1137</v>
@@ -6738,19 +6738,19 @@
         <v>809226</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>797100</v>
+        <v>798243</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>818516</v>
+        <v>819367</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9396378921774542</v>
+        <v>0.9396378921774543</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9255575469997842</v>
+        <v>0.9268846100939223</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9504248228135658</v>
+        <v>0.9514120473569324</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2163</v>
@@ -6759,19 +6759,19 @@
         <v>1876939</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1858056</v>
+        <v>1858265</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1892683</v>
+        <v>1892445</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9417402674995659</v>
+        <v>0.941740267499566</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9322656205691333</v>
+        <v>0.9323706009260136</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9496395541515669</v>
+        <v>0.9495199795451259</v>
       </c>
     </row>
     <row r="15">
@@ -6863,19 +6863,19 @@
         <v>28613</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21352</v>
+        <v>20553</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38396</v>
+        <v>37196</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05037747611847577</v>
+        <v>0.05037747611847575</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03759460508692052</v>
+        <v>0.0361868268061265</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06760283316876772</v>
+        <v>0.06549012000245086</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>235</v>
@@ -6884,19 +6884,19 @@
         <v>123820</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>109461</v>
+        <v>109209</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>139607</v>
+        <v>140081</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1490277027011926</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1317454259803345</v>
+        <v>0.1314430320348432</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1680294935348589</v>
+        <v>0.1685993111143984</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>278</v>
@@ -6905,19 +6905,19 @@
         <v>152432</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>135436</v>
+        <v>135930</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>172416</v>
+        <v>172578</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.108972518332489</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09682232658942168</v>
+        <v>0.0971754753687413</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1232587409412467</v>
+        <v>0.123374583147072</v>
       </c>
     </row>
     <row r="17">
@@ -6934,19 +6934,19 @@
         <v>539351</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>529568</v>
+        <v>530768</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>546612</v>
+        <v>547411</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9496225238815243</v>
+        <v>0.9496225238815241</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9323971668312322</v>
+        <v>0.9345098799975493</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9624053949130795</v>
+        <v>0.9638131731938735</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1055</v>
@@ -6955,19 +6955,19 @@
         <v>707030</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>691243</v>
+        <v>690769</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>721389</v>
+        <v>721641</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8509722972988073</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8319705064651411</v>
+        <v>0.8314006888856015</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8682545740196654</v>
+        <v>0.8685569679651568</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1559</v>
@@ -6976,19 +6976,19 @@
         <v>1246382</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1226398</v>
+        <v>1226236</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1263378</v>
+        <v>1262884</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.891027481667511</v>
+        <v>0.8910274816675108</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8767412590587532</v>
+        <v>0.8766254168529284</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9031776734105783</v>
+        <v>0.9028245246312587</v>
       </c>
     </row>
     <row r="18">
@@ -7080,19 +7080,19 @@
         <v>3634</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1328</v>
+        <v>1230</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8154</v>
+        <v>7831</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01531900804462511</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005599934293696682</v>
+        <v>0.005185916964546458</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03437272437105703</v>
+        <v>0.0330094277568764</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>188</v>
@@ -7101,19 +7101,19 @@
         <v>106478</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>91405</v>
+        <v>92217</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>121462</v>
+        <v>122163</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1261163381094975</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1082634472714516</v>
+        <v>0.1092255460074919</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1438643394851458</v>
+        <v>0.1446942647106423</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>194</v>
@@ -7122,19 +7122,19 @@
         <v>110112</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>94056</v>
+        <v>94507</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>125589</v>
+        <v>126303</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1018130660016683</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08696701346077114</v>
+        <v>0.08738453942462743</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1161239538141258</v>
+        <v>0.1167837921196241</v>
       </c>
     </row>
     <row r="20">
@@ -7151,19 +7151,19 @@
         <v>233594</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>229074</v>
+        <v>229397</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>235900</v>
+        <v>235998</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.984680991955375</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.965627275628943</v>
+        <v>0.9669905722431237</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9944000657063032</v>
+        <v>0.9948140830354534</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>971</v>
@@ -7172,19 +7172,19 @@
         <v>737803</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>722819</v>
+        <v>722118</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>752876</v>
+        <v>752064</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8738836618905025</v>
+        <v>0.8738836618905026</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8561356605148543</v>
+        <v>0.8553057352893576</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8917365527285483</v>
+        <v>0.8907744539925082</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1077</v>
@@ -7193,19 +7193,19 @@
         <v>971397</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>955920</v>
+        <v>955206</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>987453</v>
+        <v>987002</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8981869339983318</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8838760461858741</v>
+        <v>0.883216207880376</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9130329865392287</v>
+        <v>0.9126154605753727</v>
       </c>
     </row>
     <row r="21">
@@ -7297,19 +7297,19 @@
         <v>162858</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>143712</v>
+        <v>141613</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>187955</v>
+        <v>186334</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04730849035499036</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04174657748959792</v>
+        <v>0.04113685773770318</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05459874399650405</v>
+        <v>0.05412802141060906</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>629</v>
@@ -7318,19 +7318,19 @@
         <v>351011</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>325911</v>
+        <v>324154</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>380714</v>
+        <v>378168</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.09655393326053481</v>
+        <v>0.09655393326053482</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08964950013701267</v>
+        <v>0.08916606632840293</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1047243082638012</v>
+        <v>0.104023924361273</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>857</v>
@@ -7339,19 +7339,19 @@
         <v>513870</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>481091</v>
+        <v>478377</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>548445</v>
+        <v>547901</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.07260233838064747</v>
+        <v>0.07260233838064746</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06797115069682645</v>
+        <v>0.06758776001267099</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07748723922749537</v>
+        <v>0.07741043515176467</v>
       </c>
     </row>
     <row r="23">
@@ -7368,19 +7368,19 @@
         <v>3279618</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3254521</v>
+        <v>3256142</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3298764</v>
+        <v>3300863</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9526915096450098</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9454012560034948</v>
+        <v>0.9458719785893904</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.958253422510402</v>
+        <v>0.9588631422622966</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4615</v>
@@ -7389,19 +7389,19 @@
         <v>3284382</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3254679</v>
+        <v>3257225</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3309482</v>
+        <v>3311239</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9034460667394653</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8952756917361986</v>
+        <v>0.8959760756387269</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.910350499862987</v>
+        <v>0.9108339336715967</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7687</v>
@@ -7410,19 +7410,19 @@
         <v>6563999</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6529424</v>
+        <v>6529968</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6596778</v>
+        <v>6599492</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9273976616193526</v>
+        <v>0.9273976616193524</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9225127607725045</v>
+        <v>0.9225895648482358</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9320288493031734</v>
+        <v>0.9324122399873291</v>
       </c>
     </row>
     <row r="24">
